--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>ARMOR</t>
   </si>
@@ -46,6 +46,144 @@
   </si>
   <si>
     <t>This file will provide and overview of the armors added by the DWEMER LEGACY module</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Helm</t>
+  </si>
+  <si>
+    <t>Heavy Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Cuirass</t>
+  </si>
+  <si>
+    <t>Heavy Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Gauntlets</t>
+  </si>
+  <si>
+    <t>Heavy Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Boots</t>
+  </si>
+  <si>
+    <t>Heavy Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Resin Shield</t>
+  </si>
+  <si>
+    <t>Heavy Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Purple Resin Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Infused Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Adamant Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Shield</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Shield</t>
+  </si>
+  <si>
+    <t>Exotic</t>
   </si>
 </sst>
 </file>
@@ -366,14 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -426,6 +566,446 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B87C9-1AE7-4215-A3EB-BC3BA35EE753}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>ARMOR</t>
   </si>
@@ -184,12 +185,27 @@
   </si>
   <si>
     <t>Exotic</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,8 +244,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1D2B4921-04FD-443A-956E-BA0C54D9A434}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1050,61 @@
         <v>54</v>
       </c>
     </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B87C9-1AE7-4215-A3EB-BC3BA35EE753}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
   <si>
     <t>ARMOR</t>
   </si>
@@ -200,12 +199,99 @@
   </si>
   <si>
     <t>Dwemer Kragen Shield</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Dwemer Artisan Vest</t>
+  </si>
+  <si>
+    <t>Dwemer Artisan Cap</t>
+  </si>
+  <si>
+    <t>Light Outfit</t>
+  </si>
+  <si>
+    <t>Light Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Crown</t>
+  </si>
+  <si>
+    <t>Dwemer Royal Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Royal Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Royal Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Noble Regalia</t>
+  </si>
+  <si>
+    <t>Dwemer Noble Cap</t>
+  </si>
+  <si>
+    <t>Dwemer Elder Headdress</t>
+  </si>
+  <si>
+    <t>Dwemer Noble Coronet</t>
+  </si>
+  <si>
+    <t>Dwemer Merchant Vest</t>
+  </si>
+  <si>
+    <t>Dwemer Worker Vest</t>
+  </si>
+  <si>
+    <t>Dwemer Overseer Garment</t>
+  </si>
+  <si>
+    <t>Dwemer Captain Headgear</t>
+  </si>
+  <si>
+    <t>Dwemer Captain Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Captain Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Captain Boots</t>
+  </si>
+  <si>
+    <t>Dwemer Dumac Headwear</t>
+  </si>
+  <si>
+    <t>Dwemer Mzark Headwear</t>
+  </si>
+  <si>
+    <t>Dwemer Aztul Headwear</t>
+  </si>
+  <si>
+    <t>Dwemer Rourken Headwear</t>
+  </si>
+  <si>
+    <t>Dwemer Kragen Headwear</t>
+  </si>
+  <si>
+    <t>Light helm</t>
+  </si>
+  <si>
+    <t>Dwemer Artificer Vest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dwemer Tonal Architect Regalia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +355,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1D2B4921-04FD-443A-956E-BA0C54D9A434}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -547,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1191,201 @@
         <v>54</v>
       </c>
     </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
   <si>
     <t>ARMOR</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Dwemer Tonal Architect Regalia</t>
+  </si>
+  <si>
+    <t>Dwemer Artificer Cap</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I76"/>
+  <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1389,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
   <si>
     <t>ARMOR</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Dwemer Artificer Cap</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -639,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1204,9 @@
       <c r="C53" t="s">
         <v>60</v>
       </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -1209,6 +1215,9 @@
       <c r="C54" t="s">
         <v>63</v>
       </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -1217,6 +1226,9 @@
       <c r="C55" t="s">
         <v>64</v>
       </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -1225,6 +1237,9 @@
       <c r="C56" t="s">
         <v>64</v>
       </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -1233,6 +1248,9 @@
       <c r="C57" t="s">
         <v>12</v>
       </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -1241,6 +1259,9 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -1249,6 +1270,9 @@
       <c r="C59" t="s">
         <v>16</v>
       </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1257,6 +1281,9 @@
       <c r="C60" t="s">
         <v>60</v>
       </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -1265,6 +1292,9 @@
       <c r="C61" t="s">
         <v>60</v>
       </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -1273,6 +1303,9 @@
       <c r="C62" t="s">
         <v>64</v>
       </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -1281,6 +1314,9 @@
       <c r="C63" t="s">
         <v>64</v>
       </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -1289,6 +1325,9 @@
       <c r="C64" t="s">
         <v>60</v>
       </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -1297,6 +1336,9 @@
       <c r="C65" t="s">
         <v>60</v>
       </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -1305,6 +1347,9 @@
       <c r="C66" t="s">
         <v>60</v>
       </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -1313,6 +1358,9 @@
       <c r="C67" t="s">
         <v>64</v>
       </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
       <c r="E67" t="s">
         <v>87</v>
       </c>
@@ -1324,6 +1372,9 @@
       <c r="C68" t="s">
         <v>12</v>
       </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -1332,6 +1383,9 @@
       <c r="C69" t="s">
         <v>14</v>
       </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -1340,6 +1394,9 @@
       <c r="C70" t="s">
         <v>16</v>
       </c>
+      <c r="D70" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
@@ -1348,6 +1405,9 @@
       <c r="C71" t="s">
         <v>85</v>
       </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -1356,6 +1416,9 @@
       <c r="C72" t="s">
         <v>85</v>
       </c>
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -1364,6 +1427,9 @@
       <c r="C73" t="s">
         <v>85</v>
       </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -1372,6 +1438,9 @@
       <c r="C74" t="s">
         <v>85</v>
       </c>
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -1380,6 +1449,9 @@
       <c r="C75" t="s">
         <v>85</v>
       </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -1388,6 +1460,9 @@
       <c r="C76" t="s">
         <v>63</v>
       </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -1395,6 +1470,9 @@
       </c>
       <c r="C77" t="s">
         <v>64</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7F5E835-A312-44C1-BD61-6EA93BF41EBC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="96">
   <si>
     <t>ARMOR</t>
   </si>
@@ -292,12 +293,27 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>Dwemer Aetherium Spectacles</t>
+  </si>
+  <si>
+    <t>Dwemer Sharpshooter Goggles</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>Dwemer Scout Cap</t>
+  </si>
+  <si>
+    <t>Dwemer Scout Outfit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +377,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -639,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1491,50 @@
         <v>54</v>
       </c>
     </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>

--- a/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Equipment/Armor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7F5E835-A312-44C1-BD61-6EA93BF41EBC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C051DAE8-35D7-4C14-A0B3-EB6D90DAB371}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="100">
   <si>
     <t>ARMOR</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>Dwemer Scout Outfit</t>
+  </si>
+  <si>
+    <t>Dwemer Juggernaut Helm</t>
+  </si>
+  <si>
+    <t>Dwemer Juggernaut Cuirass</t>
+  </si>
+  <si>
+    <t>Dwemer Juggernaut Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwemer Juggernaut Boots</t>
   </si>
 </sst>
 </file>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I81"/>
+  <dimension ref="B2:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,6 +1547,50 @@
         <v>54</v>
       </c>
     </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
